--- a/biology/Zoologie/Baiami/Baiami.xlsx
+++ b/biology/Zoologie/Baiami/Baiami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baiami est un genre d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baiami est un genre d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Australie[1]. Elles se rencontrent en Australie-Occidentale, en Australie-Méridionale et au Victoria.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Australie. Elles se rencontrent en Australie-Occidentale, en Australie-Méridionale et au Victoria.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 09/09/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 09/09/2022) :
 Baiami brockmani Gray, 1982
 Baiami glenelgi Gray, 1982
 Baiami loftyensis Gray, 1982
@@ -581,9 +597,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Lehtinen en 1967 dans les Amaurobiidae. Il est placé dans les Stiphidiidae par Forster et Wilton en 1973[3] puis dans les Desidae par Wheeler et al. en 2017[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Lehtinen en 1967 dans les Amaurobiidae. Il est placé dans les Stiphidiidae par Forster et Wilton en 1973 puis dans les Desidae par Wheeler et al. en 2017.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lehtinen, 1967 : « Classification of the cribellate spiders and some allied families, with notes on the evolution of the suborder Araneomorpha. » Annales Zoologici Fennici, vol. 4, p. 199-468.</t>
         </is>
